--- a/biology/Botanique/Stipa_pennata/Stipa_pennata.xlsx
+++ b/biology/Botanique/Stipa_pennata/Stipa_pennata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stipa pennata, la stipe pennée, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire de l'Ancien Monde.
 C'est une plante herbacée vivace, cespiteuse, de 40 à 80 cm de haut, remarquable par ses longues arêtes plumeuses blanches.
 noms vernaculaires
-stipe pennée, stipe plumeuse, stipe à feuilles pennées, barbe de Saint-Moré[1] ou cheveu d'ange, cheveu-de-Marie-Madeleine, marabout, plumet[2],[3].
+stipe pennée, stipe plumeuse, stipe à feuilles pennées, barbe de Saint-Moré ou cheveu d'ange, cheveu-de-Marie-Madeleine, marabout, plumet,.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tiges dressées de 30 à 80 cm de hauteur.
 Feuilles lancéolées, raides, enroulées.
@@ -550,7 +564,9 @@
           <t>Habitat et localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante du centre et du sud de l'Europe, caractéristique des milieux secs ensoleillés (steppiques) des coteaux et rochers calcaires jusqu'à 2500 m d'altitude. En France, c'est dans les différents massifs à sommets tabulaires du Massif central (les causses) comme celui du Larzac que cette plante est le mieux représentée.
 </t>
@@ -581,9 +597,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est protégée dans 10 régions françaises, contre la destruction, la coupe, la mutilation, l'arrachage, la cueillette, l'enlèvement, le colportage, l'utilisation, la mise en vente, la vente ou l'achat de tout ou partie des spécimens sauvages. Les spécimens poussant dans les champs cultivés sont exclus de la protection pour ce qui concerne la destruction, la coupe, la mutilation et l'arrachage[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est protégée dans 10 régions françaises, contre la destruction, la coupe, la mutilation, l'arrachage, la cueillette, l'enlèvement, le colportage, l'utilisation, la mise en vente, la vente ou l'achat de tout ou partie des spécimens sauvages. Les spécimens poussant dans les champs cultivés sont exclus de la protection pour ce qui concerne la destruction, la coupe, la mutilation et l'arrachage.
 La principale menace sur la pérennité de Stipa pennata tient aux mutations agricoles : arrêt de l'agriculture extensive caractéristique de l'agropastoralisme.
 La régression de ces pratiques ancestrales entraîne la fermeture du milieu, c'est-à-dire la mise en place d'un écosystème plus évolué qui tend généralement vers un climax forestier. Ceci montre l'intérêt de garder une certaine exploitation du milieu naturel garantissant une meilleure biodiversité. En effet, la biodiversité d'une pelouse pâturée est supérieure en nombre à un écosystème forestier.
 </t>
@@ -614,9 +632,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 août 2016)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 août 2016) :
 Stipa pennata subsp. pennata
 Stipa pennata subsp. sabulosa (Pacz.) Tzvelev (1973)</t>
         </is>
